--- a/data/common/excel/local_stock/local_stock.xlsx
+++ b/data/common/excel/local_stock/local_stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\local_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CA93F5-E979-407A-AB7B-123D3800358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C63F84-D18A-493A-8729-43FA22A2AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12109,7 +12109,7 @@
   <dimension ref="A1:D1954"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
